--- a/src/main/webapp/WEB-INF/wineprice/GCC pricelist May 2015.xlsx
+++ b/src/main/webapp/WEB-INF/wineprice/GCC pricelist May 2015.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\JamesHo\Downloads\"/>
     </mc:Choice>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3775" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="399">
   <si>
     <t>appellation</t>
   </si>
@@ -1215,6 +1215,21 @@
   </si>
   <si>
     <t>00/01/03/08/09/11</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Orign</t>
+  </si>
+  <si>
+    <t>Vintage</t>
+  </si>
+  <si>
+    <t>Price Euro</t>
+  </si>
+  <si>
+    <t>Bottle Size</t>
   </si>
 </sst>
 </file>
@@ -1231,7 +1246,7 @@
   <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1284,14 +1299,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="0" rgb="FFFFFF"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1299,7 +1314,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1307,7 +1322,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="0" rgb="FFFFFF"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1315,35 +1330,35 @@
     <font>
       <b/>
       <sz val="14"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="0"/>
+      <color theme="0" rgb="FFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="9"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1358,14 +1373,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color theme="0"/>
+      <color theme="0" rgb="FFFFFF"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1381,13 +1396,13 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="1"/>
+      <color theme="1" rgb="000000"/>
       <name val="Arial Unicode MS"/>
       <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
-      <color theme="0"/>
+      <color theme="0" rgb="FFFFFF"/>
       <name val="新細明體"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1395,7 +1410,7 @@
     <font>
       <b/>
       <sz val="10"/>
-      <color theme="0"/>
+      <color theme="0" rgb="FFFFFF"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -1416,19 +1431,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <fgColor theme="0" tint="-0.14999847407452621" rgb="FFFFFF"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.749992370372631"/>
+        <fgColor theme="2" tint="-0.749992370372631" rgb="EEECE1"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="3" tint="0.39997558519241921"/>
+        <fgColor theme="3" tint="0.39997558519241921" rgb="1F497D"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2298,16 +2313,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.375" style="56" customWidth="1"/>
-    <col min="2" max="2" width="37" style="37" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="37" style="37" customWidth="1"/>
-    <col min="4" max="4" width="20.75" style="39" customWidth="1"/>
-    <col min="5" max="5" width="12.125" style="37" customWidth="1"/>
-    <col min="6" max="6" width="12.125" style="33" customWidth="1"/>
-    <col min="7" max="7" width="8.125" style="43" customWidth="1"/>
-    <col min="8" max="8" width="8.25" style="43" customWidth="1"/>
-    <col min="9" max="9" width="12.875" style="35" customWidth="1" outlineLevel="1"/>
-    <col min="10" max="256" width="11" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" style="56" width="28.375" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" hidden="true" style="37" width="37.0" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="37" width="37.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="39" width="20.75" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="37" width="12.125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="33" width="12.125" collapsed="true"/>
+    <col min="7" max="7" customWidth="true" style="43" width="8.125" collapsed="true"/>
+    <col min="8" max="8" customWidth="true" style="43" width="8.25" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="35" width="12.875" collapsed="true" outlineLevel="1"/>
+    <col min="10" max="256" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="3" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
@@ -2554,24 +2569,26 @@
     </row>
     <row r="15" spans="1:15" s="3" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="57" t="s">
-        <v>200</v>
+        <v>395</v>
       </c>
       <c r="B15" s="58" t="s">
         <v>201</v>
       </c>
-      <c r="C15" s="58"/>
+      <c r="C15" s="58" t="s">
+        <v>394</v>
+      </c>
       <c r="D15" s="59" t="s">
         <v>202</v>
       </c>
       <c r="E15" s="60" t="s">
-        <v>203</v>
+        <v>396</v>
       </c>
       <c r="F15" s="61" t="s">
-        <v>204</v>
+        <v>397</v>
       </c>
       <c r="G15" s="59"/>
       <c r="H15" s="58" t="s">
-        <v>205</v>
+        <v>398</v>
       </c>
       <c r="I15" s="59" t="s">
         <v>206</v>
@@ -24126,7 +24143,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
+    <col min="1" max="256" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="25" type="noConversion"/>
@@ -24142,7 +24159,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="256" width="11" customWidth="1"/>
+    <col min="1" max="256" customWidth="true" width="11.0" collapsed="true"/>
   </cols>
   <sheetData/>
   <phoneticPr fontId="25" type="noConversion"/>

--- a/src/main/webapp/WEB-INF/wineprice/GCC pricelist May 2015.xlsx
+++ b/src/main/webapp/WEB-INF/wineprice/GCC pricelist May 2015.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3781" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3784" uniqueCount="399">
   <si>
     <t>appellation</t>
   </si>
